--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Serpine2-Lrp1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Serpine2-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.53871559623156</v>
+        <v>3.802361666666666</v>
       </c>
       <c r="H2">
-        <v>1.53871559623156</v>
+        <v>11.407085</v>
       </c>
       <c r="I2">
-        <v>0.0146071080074962</v>
+        <v>0.03321354408244907</v>
       </c>
       <c r="J2">
-        <v>0.0146071080074962</v>
+        <v>0.03321354408244907</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N2">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O2">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P2">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q2">
-        <v>7.999513701132964</v>
+        <v>25.64592688564055</v>
       </c>
       <c r="R2">
-        <v>7.999513701132964</v>
+        <v>230.813341970765</v>
       </c>
       <c r="S2">
-        <v>0.0001198502747767349</v>
+        <v>0.0003485007740956176</v>
       </c>
       <c r="T2">
-        <v>0.0001198502747767349</v>
+        <v>0.0003485007740956176</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.53871559623156</v>
+        <v>3.802361666666666</v>
       </c>
       <c r="H3">
-        <v>1.53871559623156</v>
+        <v>11.407085</v>
       </c>
       <c r="I3">
-        <v>0.0146071080074962</v>
+        <v>0.03321354408244907</v>
       </c>
       <c r="J3">
-        <v>0.0146071080074962</v>
+        <v>0.03321354408244907</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N3">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P3">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q3">
-        <v>280.1222159958953</v>
+        <v>694.0514718564439</v>
       </c>
       <c r="R3">
-        <v>280.1222159958953</v>
+        <v>6246.463246707995</v>
       </c>
       <c r="S3">
-        <v>0.004196845684934703</v>
+        <v>0.009431418731042371</v>
       </c>
       <c r="T3">
-        <v>0.004196845684934703</v>
+        <v>0.009431418731042373</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.53871559623156</v>
+        <v>3.802361666666666</v>
       </c>
       <c r="H4">
-        <v>1.53871559623156</v>
+        <v>11.407085</v>
       </c>
       <c r="I4">
-        <v>0.0146071080074962</v>
+        <v>0.03321354408244907</v>
       </c>
       <c r="J4">
-        <v>0.0146071080074962</v>
+        <v>0.03321354408244907</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N4">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O4">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P4">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q4">
-        <v>383.1024848069952</v>
+        <v>947.2934433660171</v>
       </c>
       <c r="R4">
-        <v>383.1024848069952</v>
+        <v>8525.640990294154</v>
       </c>
       <c r="S4">
-        <v>0.005739716161154317</v>
+        <v>0.01287270683492454</v>
       </c>
       <c r="T4">
-        <v>0.005739716161154317</v>
+        <v>0.01287270683492454</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.53871559623156</v>
+        <v>3.802361666666666</v>
       </c>
       <c r="H5">
-        <v>1.53871559623156</v>
+        <v>11.407085</v>
       </c>
       <c r="I5">
-        <v>0.0146071080074962</v>
+        <v>0.03321354408244907</v>
       </c>
       <c r="J5">
-        <v>0.0146071080074962</v>
+        <v>0.03321354408244907</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N5">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O5">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P5">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q5">
-        <v>279.9102788951587</v>
+        <v>710.7795969822239</v>
       </c>
       <c r="R5">
-        <v>279.9102788951587</v>
+        <v>6397.016372840015</v>
       </c>
       <c r="S5">
-        <v>0.004193670401947806</v>
+        <v>0.009658736097324299</v>
       </c>
       <c r="T5">
-        <v>0.004193670401947806</v>
+        <v>0.009658736097324299</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.53871559623156</v>
+        <v>3.802361666666666</v>
       </c>
       <c r="H6">
-        <v>1.53871559623156</v>
+        <v>11.407085</v>
       </c>
       <c r="I6">
-        <v>0.0146071080074962</v>
+        <v>0.03321354408244907</v>
       </c>
       <c r="J6">
-        <v>0.0146071080074962</v>
+        <v>0.03321354408244907</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N6">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O6">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P6">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q6">
-        <v>23.82998505170558</v>
+        <v>66.39091280894888</v>
       </c>
       <c r="R6">
-        <v>23.82998505170558</v>
+        <v>597.5182152805399</v>
       </c>
       <c r="S6">
-        <v>0.0003570254846826377</v>
+        <v>0.0009021816450622486</v>
       </c>
       <c r="T6">
-        <v>0.0003570254846826377</v>
+        <v>0.0009021816450622487</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>90.9543918020269</v>
+        <v>92.736926</v>
       </c>
       <c r="H7">
-        <v>90.9543918020269</v>
+        <v>278.210778</v>
       </c>
       <c r="I7">
-        <v>0.8634348206141124</v>
+        <v>0.8100549736690359</v>
       </c>
       <c r="J7">
-        <v>0.8634348206141124</v>
+        <v>0.8100549736690359</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N7">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O7">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P7">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q7">
-        <v>472.8560009273056</v>
+        <v>625.4861142338447</v>
       </c>
       <c r="R7">
-        <v>472.8560009273056</v>
+        <v>5629.375028104602</v>
       </c>
       <c r="S7">
-        <v>0.007084420848349715</v>
+        <v>0.008499688701779994</v>
       </c>
       <c r="T7">
-        <v>0.007084420848349715</v>
+        <v>0.008499688701779995</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>90.9543918020269</v>
+        <v>92.736926</v>
       </c>
       <c r="H8">
-        <v>90.9543918020269</v>
+        <v>278.210778</v>
       </c>
       <c r="I8">
-        <v>0.8634348206141124</v>
+        <v>0.8100549736690359</v>
       </c>
       <c r="J8">
-        <v>0.8634348206141124</v>
+        <v>0.8100549736690359</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N8">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P8">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q8">
-        <v>16558.19038199211</v>
+        <v>16927.42711720184</v>
       </c>
       <c r="R8">
-        <v>16558.19038199211</v>
+        <v>152346.8440548166</v>
       </c>
       <c r="S8">
-        <v>0.2480780383945312</v>
+        <v>0.2300256676273624</v>
       </c>
       <c r="T8">
-        <v>0.2480780383945312</v>
+        <v>0.2300256676273624</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>90.9543918020269</v>
+        <v>92.736926</v>
       </c>
       <c r="H9">
-        <v>90.9543918020269</v>
+        <v>278.210778</v>
       </c>
       <c r="I9">
-        <v>0.8634348206141124</v>
+        <v>0.8100549736690359</v>
       </c>
       <c r="J9">
-        <v>0.8634348206141124</v>
+        <v>0.8100549736690359</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N9">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O9">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P9">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q9">
-        <v>22645.41516886121</v>
+        <v>23103.82064069467</v>
       </c>
       <c r="R9">
-        <v>22645.41516886121</v>
+        <v>207934.3857662521</v>
       </c>
       <c r="S9">
-        <v>0.3392780276177121</v>
+        <v>0.3139562634547102</v>
       </c>
       <c r="T9">
-        <v>0.3392780276177121</v>
+        <v>0.3139562634547103</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>90.9543918020269</v>
+        <v>92.736926</v>
       </c>
       <c r="H10">
-        <v>90.9543918020269</v>
+        <v>278.210778</v>
       </c>
       <c r="I10">
-        <v>0.8634348206141124</v>
+        <v>0.8100549736690359</v>
       </c>
       <c r="J10">
-        <v>0.8634348206141124</v>
+        <v>0.8100549736690359</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N10">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O10">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P10">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q10">
-        <v>16545.66265422683</v>
+        <v>17335.41432039395</v>
       </c>
       <c r="R10">
-        <v>16545.66265422683</v>
+        <v>156018.7288835455</v>
       </c>
       <c r="S10">
-        <v>0.2478903455333034</v>
+        <v>0.2355697782679166</v>
       </c>
       <c r="T10">
-        <v>0.2478903455333034</v>
+        <v>0.2355697782679166</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>90.9543918020269</v>
+        <v>92.736926</v>
       </c>
       <c r="H11">
-        <v>90.9543918020269</v>
+        <v>278.210778</v>
       </c>
       <c r="I11">
-        <v>0.8634348206141124</v>
+        <v>0.8100549736690359</v>
       </c>
       <c r="J11">
-        <v>0.8634348206141124</v>
+        <v>0.8100549736690359</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N11">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O11">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P11">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q11">
-        <v>1408.604554563245</v>
+        <v>1619.227655856675</v>
       </c>
       <c r="R11">
-        <v>1408.604554563245</v>
+        <v>14573.04890271007</v>
       </c>
       <c r="S11">
-        <v>0.02110398822021581</v>
+        <v>0.02200357561726664</v>
       </c>
       <c r="T11">
-        <v>0.02110398822021581</v>
+        <v>0.02200357561726664</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.78521243571459</v>
+        <v>1.844577333333334</v>
       </c>
       <c r="H12">
-        <v>1.78521243571459</v>
+        <v>5.533732000000001</v>
       </c>
       <c r="I12">
-        <v>0.0169471154569906</v>
+        <v>0.01611234173519871</v>
       </c>
       <c r="J12">
-        <v>0.0169471154569906</v>
+        <v>0.01611234173519871</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N12">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O12">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P12">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q12">
-        <v>9.281007727423271</v>
+        <v>12.44118775977645</v>
       </c>
       <c r="R12">
-        <v>9.281007727423271</v>
+        <v>111.970689837988</v>
       </c>
       <c r="S12">
-        <v>0.0001390498682662598</v>
+        <v>0.0001690624629901233</v>
       </c>
       <c r="T12">
-        <v>0.0001390498682662598</v>
+        <v>0.0001690624629901233</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.78521243571459</v>
+        <v>1.844577333333334</v>
       </c>
       <c r="H13">
-        <v>1.78521243571459</v>
+        <v>5.533732000000001</v>
       </c>
       <c r="I13">
-        <v>0.0169471154569906</v>
+        <v>0.01611234173519871</v>
       </c>
       <c r="J13">
-        <v>0.0169471154569906</v>
+        <v>0.01611234173519871</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N13">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P13">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q13">
-        <v>324.9968121077941</v>
+        <v>336.6938038472672</v>
       </c>
       <c r="R13">
-        <v>324.9968121077941</v>
+        <v>3030.244234625404</v>
       </c>
       <c r="S13">
-        <v>0.004869165637801882</v>
+        <v>0.004575309435966207</v>
       </c>
       <c r="T13">
-        <v>0.004869165637801882</v>
+        <v>0.004575309435966208</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.78521243571459</v>
+        <v>1.844577333333334</v>
       </c>
       <c r="H14">
-        <v>1.78521243571459</v>
+        <v>5.533732000000001</v>
       </c>
       <c r="I14">
-        <v>0.0169471154569906</v>
+        <v>0.01611234173519871</v>
       </c>
       <c r="J14">
-        <v>0.0169471154569906</v>
+        <v>0.01611234173519871</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N14">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O14">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P14">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q14">
-        <v>444.4741586460693</v>
+        <v>459.5449267665418</v>
       </c>
       <c r="R14">
-        <v>444.4741586460693</v>
+        <v>4135.904340898876</v>
       </c>
       <c r="S14">
-        <v>0.006659198550700003</v>
+        <v>0.006244725075603508</v>
       </c>
       <c r="T14">
-        <v>0.006659198550700003</v>
+        <v>0.006244725075603509</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.78521243571459</v>
+        <v>1.844577333333334</v>
       </c>
       <c r="H15">
-        <v>1.78521243571459</v>
+        <v>5.533732000000001</v>
       </c>
       <c r="I15">
-        <v>0.0169471154569906</v>
+        <v>0.01611234173519871</v>
       </c>
       <c r="J15">
-        <v>0.0169471154569906</v>
+        <v>0.01611234173519871</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N15">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O15">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P15">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q15">
-        <v>324.7509234271628</v>
+        <v>344.8088447458432</v>
       </c>
       <c r="R15">
-        <v>324.7509234271628</v>
+        <v>3103.279602712589</v>
       </c>
       <c r="S15">
-        <v>0.004865481685621893</v>
+        <v>0.00468558418047368</v>
       </c>
       <c r="T15">
-        <v>0.004865481685621893</v>
+        <v>0.00468558418047368</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.78521243571459</v>
+        <v>1.844577333333334</v>
       </c>
       <c r="H16">
-        <v>1.78521243571459</v>
+        <v>5.533732000000001</v>
       </c>
       <c r="I16">
-        <v>0.0169471154569906</v>
+        <v>0.01611234173519871</v>
       </c>
       <c r="J16">
-        <v>0.0169471154569906</v>
+        <v>0.01611234173519871</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N16">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O16">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P16">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q16">
-        <v>27.64746504252339</v>
+        <v>32.20713431346311</v>
       </c>
       <c r="R16">
-        <v>27.64746504252339</v>
+        <v>289.8642088211681</v>
       </c>
       <c r="S16">
-        <v>0.0004142197146005643</v>
+        <v>0.0004376605801651876</v>
       </c>
       <c r="T16">
-        <v>0.0004142197146005643</v>
+        <v>0.0004376605801651876</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>11.0618745044209</v>
+        <v>5.019171333333333</v>
       </c>
       <c r="H17">
-        <v>11.0618745044209</v>
+        <v>15.057514</v>
       </c>
       <c r="I17">
-        <v>0.105010955921401</v>
+        <v>0.04384234929529272</v>
       </c>
       <c r="J17">
-        <v>0.105010955921401</v>
+        <v>0.04384234929529272</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N17">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O17">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P17">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q17">
-        <v>57.50875397314923</v>
+        <v>33.85298725515845</v>
       </c>
       <c r="R17">
-        <v>57.50875397314923</v>
+        <v>304.676885296426</v>
       </c>
       <c r="S17">
-        <v>0.0008616073705547135</v>
+        <v>0.0004600259649994368</v>
       </c>
       <c r="T17">
-        <v>0.0008616073705547135</v>
+        <v>0.0004600259649994368</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>11.0618745044209</v>
+        <v>5.019171333333333</v>
       </c>
       <c r="H18">
-        <v>11.0618745044209</v>
+        <v>15.057514</v>
       </c>
       <c r="I18">
-        <v>0.105010955921401</v>
+        <v>0.04384234929529272</v>
       </c>
       <c r="J18">
-        <v>0.105010955921401</v>
+        <v>0.04384234929529272</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N18">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P18">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q18">
-        <v>2013.807364295124</v>
+        <v>916.1577873925733</v>
       </c>
       <c r="R18">
-        <v>2013.807364295124</v>
+        <v>8245.420086533159</v>
       </c>
       <c r="S18">
-        <v>0.03017125477564965</v>
+        <v>0.0124496065017954</v>
       </c>
       <c r="T18">
-        <v>0.03017125477564965</v>
+        <v>0.0124496065017954</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>11.0618745044209</v>
+        <v>5.019171333333333</v>
       </c>
       <c r="H19">
-        <v>11.0618745044209</v>
+        <v>15.057514</v>
       </c>
       <c r="I19">
-        <v>0.105010955921401</v>
+        <v>0.04384234929529272</v>
       </c>
       <c r="J19">
-        <v>0.105010955921401</v>
+        <v>0.04384234929529272</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N19">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O19">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P19">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q19">
-        <v>2754.135734794389</v>
+        <v>1250.440781811656</v>
       </c>
       <c r="R19">
-        <v>2754.135734794389</v>
+        <v>11253.9670363049</v>
       </c>
       <c r="S19">
-        <v>0.04126299884213994</v>
+        <v>0.01699215561072543</v>
       </c>
       <c r="T19">
-        <v>0.04126299884213994</v>
+        <v>0.01699215561072543</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>11.0618745044209</v>
+        <v>5.019171333333333</v>
       </c>
       <c r="H20">
-        <v>11.0618745044209</v>
+        <v>15.057514</v>
       </c>
       <c r="I20">
-        <v>0.105010955921401</v>
+        <v>0.04384234929529272</v>
       </c>
       <c r="J20">
-        <v>0.105010955921401</v>
+        <v>0.04384234929529272</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N20">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O20">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P20">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q20">
-        <v>2012.283741855136</v>
+        <v>938.2391498331252</v>
       </c>
       <c r="R20">
-        <v>2012.283741855136</v>
+        <v>8444.152348498126</v>
       </c>
       <c r="S20">
-        <v>0.03014842756703286</v>
+        <v>0.01274966864959506</v>
       </c>
       <c r="T20">
-        <v>0.03014842756703286</v>
+        <v>0.01274966864959505</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>5.019171333333333</v>
+      </c>
+      <c r="H21">
+        <v>15.057514</v>
+      </c>
+      <c r="I21">
+        <v>0.04384234929529272</v>
+      </c>
+      <c r="J21">
+        <v>0.04384234929529272</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>17.46044133333334</v>
+      </c>
+      <c r="N21">
+        <v>52.38132400000001</v>
+      </c>
+      <c r="O21">
+        <v>0.02716306464684043</v>
+      </c>
+      <c r="P21">
+        <v>0.02716306464684043</v>
+      </c>
+      <c r="Q21">
+        <v>87.63694660761513</v>
+      </c>
+      <c r="R21">
+        <v>788.7325194685361</v>
+      </c>
+      <c r="S21">
+        <v>0.001190892568177395</v>
+      </c>
+      <c r="T21">
+        <v>0.001190892568177395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>11.079226</v>
+      </c>
+      <c r="H22">
+        <v>33.237678</v>
+      </c>
+      <c r="I22">
+        <v>0.09677679121802353</v>
+      </c>
+      <c r="J22">
+        <v>0.09677679121802353</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>6.744736333333333</v>
+      </c>
+      <c r="N22">
+        <v>20.234209</v>
+      </c>
+      <c r="O22">
+        <v>0.01049273071342527</v>
+      </c>
+      <c r="P22">
+        <v>0.01049273071342527</v>
+      </c>
+      <c r="Q22">
+        <v>74.72645814741134</v>
+      </c>
+      <c r="R22">
+        <v>672.538123326702</v>
+      </c>
+      <c r="S22">
+        <v>0.001015452809560101</v>
+      </c>
+      <c r="T22">
+        <v>0.001015452809560101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>11.079226</v>
+      </c>
+      <c r="H23">
+        <v>33.237678</v>
+      </c>
+      <c r="I23">
+        <v>0.09677679121802353</v>
+      </c>
+      <c r="J23">
+        <v>0.09677679121802353</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>182.5316823333334</v>
+      </c>
+      <c r="N23">
+        <v>547.595047</v>
+      </c>
+      <c r="O23">
+        <v>0.283963033503136</v>
+      </c>
+      <c r="P23">
+        <v>0.2839630335031361</v>
+      </c>
+      <c r="Q23">
+        <v>2022.309760731207</v>
+      </c>
+      <c r="R23">
+        <v>18200.78784658087</v>
+      </c>
+      <c r="S23">
+        <v>0.02748103120696961</v>
+      </c>
+      <c r="T23">
+        <v>0.02748103120696962</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>11.079226</v>
+      </c>
+      <c r="H24">
+        <v>33.237678</v>
+      </c>
+      <c r="I24">
+        <v>0.09677679121802353</v>
+      </c>
+      <c r="J24">
+        <v>0.09677679121802353</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>249.1329143333333</v>
+      </c>
+      <c r="N24">
+        <v>747.398743</v>
+      </c>
+      <c r="O24">
+        <v>0.3875740210972192</v>
+      </c>
+      <c r="P24">
+        <v>0.3875740210972192</v>
+      </c>
+      <c r="Q24">
+        <v>2760.19986193764</v>
+      </c>
+      <c r="R24">
+        <v>24841.79875743876</v>
+      </c>
+      <c r="S24">
+        <v>0.03750817012125543</v>
+      </c>
+      <c r="T24">
+        <v>0.03750817012125543</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>11.0618745044209</v>
-      </c>
-      <c r="H21">
-        <v>11.0618745044209</v>
-      </c>
-      <c r="I21">
-        <v>0.105010955921401</v>
-      </c>
-      <c r="J21">
-        <v>0.105010955921401</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>15.4869328094595</v>
-      </c>
-      <c r="N21">
-        <v>15.4869328094595</v>
-      </c>
-      <c r="O21">
-        <v>0.0244419007855228</v>
-      </c>
-      <c r="P21">
-        <v>0.0244419007855228</v>
-      </c>
-      <c r="Q21">
-        <v>171.3145071966396</v>
-      </c>
-      <c r="R21">
-        <v>171.3145071966396</v>
-      </c>
-      <c r="S21">
-        <v>0.002566667366023791</v>
-      </c>
-      <c r="T21">
-        <v>0.002566667366023791</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>11.079226</v>
+      </c>
+      <c r="H25">
+        <v>33.237678</v>
+      </c>
+      <c r="I25">
+        <v>0.09677679121802353</v>
+      </c>
+      <c r="J25">
+        <v>0.09677679121802353</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>186.9310863333334</v>
+      </c>
+      <c r="N25">
+        <v>560.793259</v>
+      </c>
+      <c r="O25">
+        <v>0.2908071500393791</v>
+      </c>
+      <c r="P25">
+        <v>0.2908071500393791</v>
+      </c>
+      <c r="Q25">
+        <v>2071.051751912511</v>
+      </c>
+      <c r="R25">
+        <v>18639.4657672126</v>
+      </c>
+      <c r="S25">
+        <v>0.02814338284406943</v>
+      </c>
+      <c r="T25">
+        <v>0.02814338284406943</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>11.079226</v>
+      </c>
+      <c r="H26">
+        <v>33.237678</v>
+      </c>
+      <c r="I26">
+        <v>0.09677679121802353</v>
+      </c>
+      <c r="J26">
+        <v>0.09677679121802353</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>17.46044133333334</v>
+      </c>
+      <c r="N26">
+        <v>52.38132400000001</v>
+      </c>
+      <c r="O26">
+        <v>0.02716306464684043</v>
+      </c>
+      <c r="P26">
+        <v>0.02716306464684043</v>
+      </c>
+      <c r="Q26">
+        <v>193.4481755917414</v>
+      </c>
+      <c r="R26">
+        <v>1741.033580325672</v>
+      </c>
+      <c r="S26">
+        <v>0.002628754236168952</v>
+      </c>
+      <c r="T26">
+        <v>0.002628754236168953</v>
       </c>
     </row>
   </sheetData>
